--- a/outputs-r202/f__Oscillospiraceae.xlsx
+++ b/outputs-r202/f__Oscillospiraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -881,6 +886,11 @@
           <t>g__CAG-110</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>g__CAG-110</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1052,6 +1062,11 @@
           <t>g__CAG-110</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>g__CAG-110</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1223,6 +1238,11 @@
           <t>g__CAG-103</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>g__CAG-103</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1394,6 +1414,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1565,6 +1590,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1736,6 +1766,11 @@
           <t>g__CAG-103</t>
         </is>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>g__CAG-103</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1907,6 +1942,11 @@
           <t>g__CAG-103</t>
         </is>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>g__CAG-103</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2078,6 +2118,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2249,6 +2294,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2420,6 +2470,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2591,6 +2646,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2762,6 +2822,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2933,6 +2998,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3104,6 +3174,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3275,6 +3350,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3446,6 +3526,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3617,6 +3702,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3788,6 +3878,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3959,6 +4054,11 @@
           <t>g__UBA1777</t>
         </is>
       </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>g__UBA1777</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4126,6 +4226,11 @@
         <v>0.9974720371254875</v>
       </c>
       <c r="BC21" t="inlineStr">
+        <is>
+          <t>g__CAG-83</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
         <is>
           <t>g__CAG-83</t>
         </is>
